--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.317833</v>
+        <v>1.034649</v>
       </c>
       <c r="H2">
-        <v>0.953499</v>
+        <v>3.103947</v>
       </c>
       <c r="I2">
-        <v>0.00735622594276287</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="J2">
-        <v>0.007356225942762871</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N2">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O2">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P2">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q2">
-        <v>27.95064063435133</v>
+        <v>138.413276681064</v>
       </c>
       <c r="R2">
-        <v>251.555765709162</v>
+        <v>1245.719490129576</v>
       </c>
       <c r="S2">
-        <v>0.003022916910094692</v>
+        <v>0.01173719382794116</v>
       </c>
       <c r="T2">
-        <v>0.003022916910094692</v>
+        <v>0.01173719382794115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.317833</v>
+        <v>1.034649</v>
       </c>
       <c r="H3">
-        <v>0.953499</v>
+        <v>3.103947</v>
       </c>
       <c r="I3">
-        <v>0.00735622594276287</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="J3">
-        <v>0.007356225942762871</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q3">
-        <v>16.667788968843</v>
+        <v>54.259032853179</v>
       </c>
       <c r="R3">
-        <v>150.010100719587</v>
+        <v>488.331295678611</v>
       </c>
       <c r="S3">
-        <v>0.001802654249930919</v>
+        <v>0.004601067186508668</v>
       </c>
       <c r="T3">
-        <v>0.001802654249930919</v>
+        <v>0.004601067186508667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.317833</v>
+        <v>1.034649</v>
       </c>
       <c r="H4">
-        <v>0.953499</v>
+        <v>3.103947</v>
       </c>
       <c r="I4">
-        <v>0.00735622594276287</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="J4">
-        <v>0.007356225942762871</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N4">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O4">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P4">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q4">
-        <v>6.023940232001667</v>
+        <v>21.932169795459</v>
       </c>
       <c r="R4">
-        <v>54.215462088015</v>
+        <v>197.389528159131</v>
       </c>
       <c r="S4">
-        <v>0.0006515010167723186</v>
+        <v>0.001859808062703252</v>
       </c>
       <c r="T4">
-        <v>0.0006515010167723186</v>
+        <v>0.001859808062703251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.317833</v>
+        <v>1.034649</v>
       </c>
       <c r="H5">
-        <v>0.953499</v>
+        <v>3.103947</v>
       </c>
       <c r="I5">
-        <v>0.00735622594276287</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="J5">
-        <v>0.007356225942762871</v>
+        <v>0.02307585235784855</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N5">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q5">
-        <v>17.375122496347</v>
+        <v>57.52226441161199</v>
       </c>
       <c r="R5">
-        <v>156.376102467123</v>
+        <v>517.7003797045079</v>
       </c>
       <c r="S5">
-        <v>0.001879153765964942</v>
+        <v>0.00487778328069548</v>
       </c>
       <c r="T5">
-        <v>0.001879153765964942</v>
+        <v>0.004877783280695479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>122.959687</v>
       </c>
       <c r="I6">
-        <v>0.9486315553801341</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="J6">
-        <v>0.9486315553801342</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N6">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O6">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P6">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q6">
-        <v>3604.410727068745</v>
+        <v>5483.100445126167</v>
       </c>
       <c r="R6">
-        <v>32439.69654361871</v>
+        <v>49347.9040061355</v>
       </c>
       <c r="S6">
-        <v>0.3898241289107282</v>
+        <v>0.4649569336531765</v>
       </c>
       <c r="T6">
-        <v>0.3898241289107283</v>
+        <v>0.4649569336531765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>122.959687</v>
       </c>
       <c r="I7">
-        <v>0.9486315553801341</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="J7">
-        <v>0.9486315553801342</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q7">
         <v>2149.416113274359</v>
@@ -883,10 +883,10 @@
         <v>19344.74501946923</v>
       </c>
       <c r="S7">
-        <v>0.2324635918241399</v>
+        <v>0.1822665725668242</v>
       </c>
       <c r="T7">
-        <v>0.2324635918241399</v>
+        <v>0.1822665725668242</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>122.959687</v>
       </c>
       <c r="I8">
-        <v>0.9486315553801341</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="J8">
-        <v>0.9486315553801342</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N8">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O8">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P8">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q8">
-        <v>776.8249420645774</v>
+        <v>868.8204834942391</v>
       </c>
       <c r="R8">
-        <v>6991.424478581196</v>
+        <v>7819.384351448151</v>
       </c>
       <c r="S8">
-        <v>0.08401514957279038</v>
+        <v>0.07367439497841563</v>
       </c>
       <c r="T8">
-        <v>0.08401514957279038</v>
+        <v>0.0736743949784156</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>122.959687</v>
       </c>
       <c r="I9">
-        <v>0.9486315553801341</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="J9">
-        <v>0.9486315553801342</v>
+        <v>0.9141262989281937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N9">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q9">
-        <v>2240.631215908444</v>
+        <v>2278.685695207763</v>
       </c>
       <c r="R9">
-        <v>20165.680943176</v>
+        <v>20508.17125686987</v>
       </c>
       <c r="S9">
-        <v>0.2423286850724757</v>
+        <v>0.1932283977297774</v>
       </c>
       <c r="T9">
-        <v>0.2423286850724757</v>
+        <v>0.1932283977297773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.882194666666667</v>
+        <v>2.775347666666667</v>
       </c>
       <c r="H10">
-        <v>5.646584</v>
+        <v>8.326043</v>
       </c>
       <c r="I10">
-        <v>0.04356328397700443</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="J10">
-        <v>0.04356328397700442</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N10">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O10">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P10">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q10">
-        <v>165.5226069410436</v>
+        <v>371.2804675522605</v>
       </c>
       <c r="R10">
-        <v>1489.703462469392</v>
+        <v>3341.524207970344</v>
       </c>
       <c r="S10">
-        <v>0.01790159639167962</v>
+        <v>0.03148390758952156</v>
       </c>
       <c r="T10">
-        <v>0.01790159639167962</v>
+        <v>0.03148390758952156</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.882194666666667</v>
+        <v>2.775347666666667</v>
       </c>
       <c r="H11">
-        <v>5.646584</v>
+        <v>8.326043</v>
       </c>
       <c r="I11">
-        <v>0.04356328397700443</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="J11">
-        <v>0.04356328397700442</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q11">
-        <v>98.705998125688</v>
+        <v>145.544701850251</v>
       </c>
       <c r="R11">
-        <v>888.3539831311919</v>
+        <v>1309.902316652259</v>
       </c>
       <c r="S11">
-        <v>0.010675248369628</v>
+        <v>0.01234192569678548</v>
       </c>
       <c r="T11">
-        <v>0.010675248369628</v>
+        <v>0.01234192569678548</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.882194666666667</v>
+        <v>2.775347666666667</v>
       </c>
       <c r="H12">
-        <v>5.646584</v>
+        <v>8.326043</v>
       </c>
       <c r="I12">
-        <v>0.04356328397700443</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="J12">
-        <v>0.04356328397700442</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N12">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O12">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P12">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q12">
-        <v>35.67353980547112</v>
+        <v>58.83096225557101</v>
       </c>
       <c r="R12">
-        <v>321.06185824924</v>
+        <v>529.478660300139</v>
       </c>
       <c r="S12">
-        <v>0.003858163686894592</v>
+        <v>0.004988758474875368</v>
       </c>
       <c r="T12">
-        <v>0.003858163686894591</v>
+        <v>0.004988758474875367</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.882194666666667</v>
+        <v>2.775347666666667</v>
       </c>
       <c r="H13">
-        <v>5.646584</v>
+        <v>8.326043</v>
       </c>
       <c r="I13">
-        <v>0.04356328397700443</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="J13">
-        <v>0.04356328397700442</v>
+        <v>0.06189878209682655</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N13">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q13">
-        <v>102.8947997700187</v>
+        <v>154.2980105486502</v>
       </c>
       <c r="R13">
-        <v>926.0531979301679</v>
+        <v>1388.682094937852</v>
       </c>
       <c r="S13">
-        <v>0.01112827552880222</v>
+        <v>0.01308419033564415</v>
       </c>
       <c r="T13">
-        <v>0.01112827552880222</v>
+        <v>0.01308419033564414</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01939666666666667</v>
+        <v>0.04031133333333333</v>
       </c>
       <c r="H14">
-        <v>0.05819</v>
+        <v>0.120934</v>
       </c>
       <c r="I14">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="J14">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N14">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O14">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P14">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q14">
-        <v>1.705767681468889</v>
+        <v>5.392769658163556</v>
       </c>
       <c r="R14">
-        <v>15.35190913322</v>
+        <v>48.53492692347201</v>
       </c>
       <c r="S14">
-        <v>0.0001844821389413205</v>
+        <v>0.000457297047400692</v>
       </c>
       <c r="T14">
-        <v>0.0001844821389413205</v>
+        <v>0.0004572970474006919</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01939666666666667</v>
+        <v>0.04031133333333333</v>
       </c>
       <c r="H15">
-        <v>0.05819</v>
+        <v>0.120934</v>
       </c>
       <c r="I15">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="J15">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q15">
-        <v>1.01719943083</v>
+        <v>2.114005773638</v>
       </c>
       <c r="R15">
-        <v>9.15479487747</v>
+        <v>19.026051962742</v>
       </c>
       <c r="S15">
-        <v>0.0001100121246099683</v>
+        <v>0.0001792638402438054</v>
       </c>
       <c r="T15">
-        <v>0.0001100121246099683</v>
+        <v>0.0001792638402438054</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01939666666666667</v>
+        <v>0.04031133333333333</v>
       </c>
       <c r="H16">
-        <v>0.05819</v>
+        <v>0.120934</v>
       </c>
       <c r="I16">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="J16">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N16">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O16">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P16">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q16">
-        <v>0.3676281591277779</v>
+        <v>0.8545071877980001</v>
       </c>
       <c r="R16">
-        <v>3.30865343215</v>
+        <v>7.690564690182001</v>
       </c>
       <c r="S16">
-        <v>3.975971046218321E-05</v>
+        <v>7.246065356623521E-05</v>
       </c>
       <c r="T16">
-        <v>3.97597104621832E-05</v>
+        <v>7.246065356623518E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.01939666666666667</v>
+        <v>0.04031133333333333</v>
       </c>
       <c r="H17">
-        <v>0.05819</v>
+        <v>0.120934</v>
       </c>
       <c r="I17">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="J17">
-        <v>0.0004489347000986592</v>
+        <v>0.0008990666171310454</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N17">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q17">
-        <v>1.060366479736667</v>
+        <v>2.241145716841777</v>
       </c>
       <c r="R17">
-        <v>9.543298317629999</v>
+        <v>20.170311451576</v>
       </c>
       <c r="S17">
-        <v>0.0001146807260851873</v>
+        <v>0.0001900450759203128</v>
       </c>
       <c r="T17">
-        <v>0.0001146807260851873</v>
+        <v>0.0001900450759203127</v>
       </c>
     </row>
   </sheetData>
